--- a/BTS_SIO--Tableau_de_synthèse_-_Epreuve_E4.xlsx
+++ b/BTS_SIO--Tableau_de_synthèse_-_Epreuve_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cHcSdX7nRt63C9X2GC\Desktop\pivert\potfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D81C6472-E4A0-4F7D-8C83-22E14CA0FD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7105FF-A4C6-43CB-BDD3-EC9AA0DE7F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -135,9 +132,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>N° candidat : 153106572HB</t>
-  </si>
-  <si>
     <t>NOM et prénom : PIVERT Kouassi Thierry</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Conception de base de données</t>
   </si>
   <si>
-    <t>20/10/2023 au 19/03/2024</t>
-  </si>
-  <si>
     <t>du 09/11/2023 au 19/03/2024</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>Projet M2L</t>
   </si>
   <si>
-    <t>20/09/2023 au 25/04/2024</t>
-  </si>
-  <si>
     <t>Inventaire du parc informatique</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>Déploiement du Pfsense</t>
   </si>
   <si>
-    <t>11/10/2023 au 25/04/2024</t>
-  </si>
-  <si>
     <t>Déploiment de nouveau switch</t>
   </si>
   <si>
@@ -196,6 +181,33 @@
   </si>
   <si>
     <t>SESSION 2024</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :https://pivert91.github.io/PortfolioBTS/</t>
+  </si>
+  <si>
+    <t>Modification de la base de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangement de la baie </t>
+  </si>
+  <si>
+    <t>Mise en place d'une veille technologique</t>
+  </si>
+  <si>
+    <t>du 11/10/2023 au 25/04/2024</t>
+  </si>
+  <si>
+    <t>du 20/09/2023 au 25/04/2024</t>
+  </si>
+  <si>
+    <t>du 20/10/2023 au 19/03/2024</t>
+  </si>
+  <si>
+    <t>N° candidat : 02341336809</t>
+  </si>
+  <si>
+    <t>du  20/05/2023 au 25/04/2023</t>
   </si>
 </sst>
 </file>
@@ -735,9 +747,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -760,45 +811,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,6 +1611,206 @@
         <a:xfrm flipH="1">
           <a:off x="13784036" y="8055429"/>
           <a:ext cx="1074964" cy="421821"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEF2D39-5BF8-4E6E-BFEC-292E139A5E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8640536" y="13838464"/>
+          <a:ext cx="1279071" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFDC562-B6F4-4E66-8666-9372E7C598C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8654143" y="13838464"/>
+          <a:ext cx="1224643" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connecteur droit 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA42ABD-86C8-43D0-9819-52DCC2DD0E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8640536" y="13838464"/>
+          <a:ext cx="1279071" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC71A75-026F-42C4-84CD-0659DBD9C31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8654143" y="13838464"/>
+          <a:ext cx="1224643" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1916,8 +2128,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1930,56 +2142,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1991,63 +2203,63 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2086,16 +2298,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2134,20 +2346,20 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -2187,10 +2399,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2236,10 +2448,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2285,10 +2497,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2334,10 +2546,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2382,8 +2594,12 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2607,16 +2823,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2655,10 +2871,10 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2703,8 +2919,12 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2748,8 +2968,12 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2973,16 +3197,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -3021,10 +3245,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3070,10 +3294,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -3119,10 +3343,10 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -3168,10 +3392,10 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -3443,6 +3667,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3450,11 +3679,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3466,6 +3690,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216AE424E6D0DF4BB802DEB7670617E5" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0889c9750a2dc8daf8ed86dcbe45a06e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd61b32-ad06-4243-89d2-f89b7177c2ef" xmlns:ns3="ea427f98-6051-4f3a-9751-1838c00212b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba03d04815fbd52e1976299bc43f99c5" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd61b32-ad06-4243-89d2-f89b7177c2ef"/>
@@ -3642,15 +3875,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3658,6 +3882,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8687AE8D-1014-47EF-817C-F2EAFD33C9AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E59468-3283-4C0A-89EE-5B4566B68A7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3676,14 +3908,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8687AE8D-1014-47EF-817C-F2EAFD33C9AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01196541-288C-4189-AB32-7C244CF181F5}">
   <ds:schemaRefs>

--- a/BTS_SIO--Tableau_de_synthèse_-_Epreuve_E4.xlsx
+++ b/BTS_SIO--Tableau_de_synthèse_-_Epreuve_E4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cHcSdX7nRt63C9X2GC\Desktop\pivert\potfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7105FF-A4C6-43CB-BDD3-EC9AA0DE7F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA33F0C-5E4D-46D1-B7DD-F33BA9E55304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -747,15 +747,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,30 +811,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2128,8 +2128,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2142,56 +2142,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -2203,22 +2203,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2241,8 +2241,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -2298,16 +2298,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2823,16 +2823,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3197,16 +3197,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -3667,11 +3667,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3679,6 +3674,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3690,15 +3690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216AE424E6D0DF4BB802DEB7670617E5" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0889c9750a2dc8daf8ed86dcbe45a06e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd61b32-ad06-4243-89d2-f89b7177c2ef" xmlns:ns3="ea427f98-6051-4f3a-9751-1838c00212b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba03d04815fbd52e1976299bc43f99c5" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd61b32-ad06-4243-89d2-f89b7177c2ef"/>
@@ -3875,6 +3866,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3882,14 +3882,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8687AE8D-1014-47EF-817C-F2EAFD33C9AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E59468-3283-4C0A-89EE-5B4566B68A7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3908,6 +3900,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8687AE8D-1014-47EF-817C-F2EAFD33C9AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01196541-288C-4189-AB32-7C244CF181F5}">
   <ds:schemaRefs>
